--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>394.8399123270432</v>
+        <v>1439.91300924203</v>
       </c>
       <c r="R2">
-        <v>394.8399123270432</v>
+        <v>12959.21708317827</v>
       </c>
       <c r="S2">
-        <v>0.0008653354223613931</v>
+        <v>0.002232015581519398</v>
       </c>
       <c r="T2">
-        <v>0.0008653354223613931</v>
+        <v>0.002232015581519398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>783.3643449004352</v>
+        <v>2212.143696169625</v>
       </c>
       <c r="R3">
-        <v>783.3643449004352</v>
+        <v>19909.29326552663</v>
       </c>
       <c r="S3">
-        <v>0.001716829770987784</v>
+        <v>0.003429053815556287</v>
       </c>
       <c r="T3">
-        <v>0.001716829770987784</v>
+        <v>0.003429053815556287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>367.7574464128861</v>
+        <v>1105.39273867793</v>
       </c>
       <c r="R4">
-        <v>367.7574464128861</v>
+        <v>9948.534648101368</v>
       </c>
       <c r="S4">
-        <v>0.0008059811971456714</v>
+        <v>0.001713474217255876</v>
       </c>
       <c r="T4">
-        <v>0.0008059811971456714</v>
+        <v>0.001713474217255875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>412.7767837184907</v>
+        <v>1160.226970345899</v>
       </c>
       <c r="R5">
-        <v>412.7767837184907</v>
+        <v>10442.04273311309</v>
       </c>
       <c r="S5">
-        <v>0.0009046460637043178</v>
+        <v>0.001798473004472874</v>
       </c>
       <c r="T5">
-        <v>0.0009046460637043178</v>
+        <v>0.001798473004472874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>308.2410800312104</v>
+        <v>883.7994283206513</v>
       </c>
       <c r="R6">
-        <v>308.2410800312104</v>
+        <v>7954.194854885861</v>
       </c>
       <c r="S6">
-        <v>0.0006755444848670901</v>
+        <v>0.001369981437967586</v>
       </c>
       <c r="T6">
-        <v>0.0006755444848670901</v>
+        <v>0.001369981437967586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>582.5537693946395</v>
+        <v>1759.429003195203</v>
       </c>
       <c r="R7">
-        <v>582.5537693946395</v>
+        <v>15834.86102875682</v>
       </c>
       <c r="S7">
-        <v>0.001276731141784334</v>
+        <v>0.002727298749648804</v>
       </c>
       <c r="T7">
-        <v>0.001276731141784334</v>
+        <v>0.002727298749648804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>6826.083554742974</v>
+        <v>9053.683758031644</v>
       </c>
       <c r="R8">
-        <v>6826.083554742974</v>
+        <v>81483.1538222848</v>
       </c>
       <c r="S8">
-        <v>0.0149601185480587</v>
+        <v>0.01403415559715875</v>
       </c>
       <c r="T8">
-        <v>0.0149601185480587</v>
+        <v>0.01403415559715875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>13542.98363755011</v>
+        <v>13909.20793401665</v>
       </c>
       <c r="R9">
-        <v>13542.98363755011</v>
+        <v>125182.8714061498</v>
       </c>
       <c r="S9">
-        <v>0.02968094941811734</v>
+        <v>0.02156072529107907</v>
       </c>
       <c r="T9">
-        <v>0.02968094941811734</v>
+        <v>0.02156072529107907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>6357.87563191933</v>
+        <v>6950.333957801129</v>
       </c>
       <c r="R10">
-        <v>6357.87563191933</v>
+        <v>62553.00562021016</v>
       </c>
       <c r="S10">
-        <v>0.01393398900035999</v>
+        <v>0.01077374368521171</v>
       </c>
       <c r="T10">
-        <v>0.01393398900035999</v>
+        <v>0.01077374368521171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>7136.180328159549</v>
+        <v>7295.112975318146</v>
       </c>
       <c r="R11">
-        <v>7136.180328159549</v>
+        <v>65656.0167778633</v>
       </c>
       <c r="S11">
-        <v>0.01563972999061995</v>
+        <v>0.01130818717890861</v>
       </c>
       <c r="T11">
-        <v>0.01563972999061995</v>
+        <v>0.01130818717890861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>5328.942950312642</v>
+        <v>5557.030513778326</v>
       </c>
       <c r="R12">
-        <v>5328.942950312642</v>
+        <v>50013.27462400494</v>
       </c>
       <c r="S12">
-        <v>0.0116789690066313</v>
+        <v>0.008613977798742931</v>
       </c>
       <c r="T12">
-        <v>0.0116789690066313</v>
+        <v>0.008613977798742931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>10071.32405025083</v>
+        <v>11062.69176498614</v>
       </c>
       <c r="R13">
-        <v>10071.32405025083</v>
+        <v>99564.22588487524</v>
       </c>
       <c r="S13">
-        <v>0.02207242271785236</v>
+        <v>0.01714832787432993</v>
       </c>
       <c r="T13">
-        <v>0.02207242271785236</v>
+        <v>0.01714832787432993</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>14372.47978606005</v>
+        <v>38118.19640279461</v>
       </c>
       <c r="R14">
-        <v>14372.47978606005</v>
+        <v>343063.7676251515</v>
       </c>
       <c r="S14">
-        <v>0.03149888214884762</v>
+        <v>0.05908718635387604</v>
       </c>
       <c r="T14">
-        <v>0.03149888214884762</v>
+        <v>0.05908718635387603</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>28515.07119897246</v>
+        <v>58561.12649901357</v>
       </c>
       <c r="R15">
-        <v>28515.07119897246</v>
+        <v>527050.1384911221</v>
       </c>
       <c r="S15">
-        <v>0.06249393845268058</v>
+        <v>0.09077586352659749</v>
       </c>
       <c r="T15">
-        <v>0.06249393845268058</v>
+        <v>0.09077586352659749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>13386.65697089978</v>
+        <v>29262.5854789162</v>
       </c>
       <c r="R16">
-        <v>13386.65697089978</v>
+        <v>263363.2693102458</v>
       </c>
       <c r="S16">
-        <v>0.02933834220469014</v>
+        <v>0.04536006434087697</v>
       </c>
       <c r="T16">
-        <v>0.02933834220469014</v>
+        <v>0.04536006434087696</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>15025.39585014125</v>
+        <v>30714.1884569435</v>
       </c>
       <c r="R17">
-        <v>15025.39585014125</v>
+        <v>276427.6961124915</v>
       </c>
       <c r="S17">
-        <v>0.0329298200566908</v>
+        <v>0.04761020059517919</v>
       </c>
       <c r="T17">
-        <v>0.0329298200566908</v>
+        <v>0.04761020059517918</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>11220.21496224119</v>
+        <v>23396.44129414317</v>
       </c>
       <c r="R18">
-        <v>11220.21496224119</v>
+        <v>210567.9716472885</v>
       </c>
       <c r="S18">
-        <v>0.02459034446673289</v>
+        <v>0.03626692806124495</v>
       </c>
       <c r="T18">
-        <v>0.02459034446673289</v>
+        <v>0.03626692806124494</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>21205.4101257688</v>
+        <v>46576.60557971593</v>
       </c>
       <c r="R19">
-        <v>21205.4101257688</v>
+        <v>419189.4502174433</v>
       </c>
       <c r="S19">
-        <v>0.04647400618489071</v>
+        <v>0.07219860416632648</v>
       </c>
       <c r="T19">
-        <v>0.04647400618489071</v>
+        <v>0.07219860416632645</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>12274.39730385494</v>
+        <v>18221.69793756646</v>
       </c>
       <c r="R20">
-        <v>12274.39730385494</v>
+        <v>163995.2814380981</v>
       </c>
       <c r="S20">
-        <v>0.02690070188842806</v>
+        <v>0.02824553529091142</v>
       </c>
       <c r="T20">
-        <v>0.02690070188842806</v>
+        <v>0.02824553529091142</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>24352.46514546302</v>
+        <v>27994.06211859519</v>
       </c>
       <c r="R21">
-        <v>24352.46514546302</v>
+        <v>251946.5590673567</v>
       </c>
       <c r="S21">
-        <v>0.05337112600393773</v>
+        <v>0.04339372061900985</v>
       </c>
       <c r="T21">
-        <v>0.05337112600393773</v>
+        <v>0.04339372061900986</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>11432.48407213704</v>
+        <v>13988.4371189697</v>
       </c>
       <c r="R22">
-        <v>11432.48407213704</v>
+        <v>125895.9340707273</v>
       </c>
       <c r="S22">
-        <v>0.02505555574383868</v>
+        <v>0.02168353880425052</v>
       </c>
       <c r="T22">
-        <v>0.02505555574383868</v>
+        <v>0.02168353880425052</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>12832.00123135358</v>
+        <v>14682.34904259225</v>
       </c>
       <c r="R23">
-        <v>12832.00123135358</v>
+        <v>132141.1413833303</v>
       </c>
       <c r="S23">
-        <v>0.02812275268686087</v>
+        <v>0.02275917477377547</v>
       </c>
       <c r="T23">
-        <v>0.02812275268686087</v>
+        <v>0.02275917477377547</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>9582.297441446597</v>
+        <v>11184.23551762349</v>
       </c>
       <c r="R24">
-        <v>9582.297441446597</v>
+        <v>100658.1196586114</v>
       </c>
       <c r="S24">
-        <v>0.02100066671278805</v>
+        <v>0.01733673338770584</v>
       </c>
       <c r="T24">
-        <v>0.02100066671278805</v>
+        <v>0.01733673338770585</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>18109.86223319134</v>
+        <v>22265.08381620422</v>
       </c>
       <c r="R25">
-        <v>18109.86223319134</v>
+        <v>200385.754345838</v>
       </c>
       <c r="S25">
-        <v>0.039689769942723</v>
+        <v>0.03451320578578784</v>
       </c>
       <c r="T25">
-        <v>0.039689769942723</v>
+        <v>0.03451320578578784</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>26726.55095190903</v>
+        <v>38151.63900943178</v>
       </c>
       <c r="R26">
-        <v>26726.55095190903</v>
+        <v>343364.751084886</v>
       </c>
       <c r="S26">
-        <v>0.05857419813495755</v>
+        <v>0.05913902588766849</v>
       </c>
       <c r="T26">
-        <v>0.05857419813495755</v>
+        <v>0.05913902588766849</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>53025.60968190231</v>
+        <v>58612.50449961573</v>
       </c>
       <c r="R27">
-        <v>53025.60968190231</v>
+        <v>527512.5404965417</v>
       </c>
       <c r="S27">
-        <v>0.1162114996926986</v>
+        <v>0.09085550479461527</v>
       </c>
       <c r="T27">
-        <v>0.1162114996926986</v>
+        <v>0.09085550479461528</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>24893.34999486262</v>
+        <v>29288.25870660559</v>
       </c>
       <c r="R28">
-        <v>24893.34999486262</v>
+        <v>263594.3283594503</v>
       </c>
       <c r="S28">
-        <v>0.05455653508997865</v>
+        <v>0.0453998605256901</v>
       </c>
       <c r="T28">
-        <v>0.05455653508997865</v>
+        <v>0.04539986052569009</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>27940.69038461229</v>
+        <v>30741.13523354047</v>
       </c>
       <c r="R29">
-        <v>27940.69038461229</v>
+        <v>276670.2171018643</v>
       </c>
       <c r="S29">
-        <v>0.06123511924754674</v>
+        <v>0.0476519709138374</v>
       </c>
       <c r="T29">
-        <v>0.06123511924754674</v>
+        <v>0.0476519709138374</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>20864.71168117866</v>
+        <v>23416.96792070865</v>
       </c>
       <c r="R30">
-        <v>20864.71168117866</v>
+        <v>210752.7112863778</v>
       </c>
       <c r="S30">
-        <v>0.04572732778880422</v>
+        <v>0.03629874647668818</v>
       </c>
       <c r="T30">
-        <v>0.04572732778880422</v>
+        <v>0.03629874647668818</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>39432.82457994333</v>
+        <v>46617.46908444311</v>
       </c>
       <c r="R31">
-        <v>39432.82457994333</v>
+        <v>419557.221759988</v>
       </c>
       <c r="S31">
-        <v>0.08642140484654057</v>
+        <v>0.07226194686736545</v>
       </c>
       <c r="T31">
-        <v>0.08642140484654057</v>
+        <v>0.07226194686736544</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H32">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>2629.925186783742</v>
+        <v>3521.335883402201</v>
       </c>
       <c r="R32">
-        <v>2629.925186783742</v>
+        <v>31692.02295061982</v>
       </c>
       <c r="S32">
-        <v>0.005763772484072918</v>
+        <v>0.005458438467511605</v>
       </c>
       <c r="T32">
-        <v>0.005763772484072918</v>
+        <v>0.005458438467511604</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H33">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>5217.784617922718</v>
+        <v>5409.841376920804</v>
       </c>
       <c r="R33">
-        <v>5217.784617922718</v>
+        <v>48688.57239228723</v>
       </c>
       <c r="S33">
-        <v>0.0114353532031004</v>
+        <v>0.008385819260839785</v>
       </c>
       <c r="T33">
-        <v>0.0114353532031004</v>
+        <v>0.008385819260839785</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H34">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>2449.535978387659</v>
+        <v>2703.259912908084</v>
       </c>
       <c r="R34">
-        <v>2449.535978387659</v>
+        <v>24329.33921617276</v>
       </c>
       <c r="S34">
-        <v>0.005368429543900327</v>
+        <v>0.00419033525482471</v>
       </c>
       <c r="T34">
-        <v>0.005368429543900327</v>
+        <v>0.004190335254824709</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H35">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>2749.397986700169</v>
+        <v>2837.358116321672</v>
       </c>
       <c r="R35">
-        <v>2749.397986700169</v>
+        <v>25536.22304689505</v>
       </c>
       <c r="S35">
-        <v>0.006025610364562435</v>
+        <v>0.004398201478375563</v>
       </c>
       <c r="T35">
-        <v>0.006025610364562435</v>
+        <v>0.004398201478375563</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H36">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>2053.113058398328</v>
+        <v>2161.349068103843</v>
       </c>
       <c r="R36">
-        <v>2053.113058398328</v>
+        <v>19452.14161293459</v>
       </c>
       <c r="S36">
-        <v>0.004499624784824785</v>
+        <v>0.003350316835910559</v>
       </c>
       <c r="T36">
-        <v>0.004499624784824785</v>
+        <v>0.003350316835910559</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H37">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>3880.237997616018</v>
+        <v>4302.718597223568</v>
       </c>
       <c r="R37">
-        <v>3880.237997616018</v>
+        <v>38724.46737501212</v>
       </c>
       <c r="S37">
-        <v>0.008503971563413319</v>
+        <v>0.006669663299279239</v>
       </c>
       <c r="T37">
-        <v>0.008503971563413319</v>
+        <v>0.006669663299279238</v>
       </c>
     </row>
   </sheetData>
